--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1060692.672145004</v>
+        <v>-1063241.329331025</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>41.56030045993179</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6196756555345</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>39.57748634140344</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>61.78359424873956</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>25.35054474846874</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>4.416820816807771</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>35.00179869008806</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.2521261057164</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>42.24406744395584</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>341.0302325097502</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>143.8110428715693</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>1.222869511151909</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206837</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986253</v>
+        <v>96.36494467178746</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>105.6507867899592</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>137.7610225486945</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.8476477102224</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>154.48925501485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>176.2934305920511</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.5813113004302</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>135.0949745400653</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>87.21471514852973</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703259</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,7 +3190,7 @@
         <v>151.6755878036688</v>
       </c>
       <c r="D34" t="n">
-        <v>56.17220388510072</v>
+        <v>56.17220388510231</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>124.7234795512649</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360655</v>
+        <v>65.69460302360652</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.8040134151627</v>
+        <v>50.80401341516266</v>
       </c>
       <c r="S34" t="n">
         <v>165.4550527066856</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323293</v>
+        <v>201.8342170323292</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942852</v>
+        <v>270.6132410942851</v>
       </c>
       <c r="V34" t="n">
         <v>236.566410028869</v>
@@ -3250,7 +3250,7 @@
         <v>270.951765041632</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940782</v>
+        <v>210.1384220940781</v>
       </c>
       <c r="Y34" t="n">
         <v>203.0134200571358</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.60199849331</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.639481552899</v>
+        <v>806.3384156653767</v>
       </c>
       <c r="D2" t="n">
-        <v>1236.639481552899</v>
+        <v>448.072717058626</v>
       </c>
       <c r="E2" t="n">
-        <v>850.8512289546543</v>
+        <v>448.072717058626</v>
       </c>
       <c r="F2" t="n">
-        <v>439.8653241650468</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557432</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064749</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080128</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986301</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527.3220873375167</v>
+        <v>697.2814163499066</v>
       </c>
       <c r="C4" t="n">
-        <v>527.3220873375167</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D4" t="n">
-        <v>527.3220873375168</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3220873375169</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
         <v>212.7293032143256</v>
@@ -4486,52 +4486,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764913</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760402</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915318</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484844</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1473.864789554134</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1219.180301348247</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>929.7631313112865</v>
+        <v>1106.919432078164</v>
       </c>
       <c r="X4" t="n">
-        <v>929.7631313112865</v>
+        <v>878.9298811801464</v>
       </c>
       <c r="Y4" t="n">
-        <v>708.9705521677564</v>
+        <v>878.9298811801464</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1955.701599376001</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1586.739082435589</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1228.473383828838</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>842.6851312305942</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>431.6992264409866</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612892</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351812</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.701599376001</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1891.939195876283</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1637.254707670396</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.837537633435</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2029.572515263129</v>
+        <v>1648.004869410818</v>
       </c>
       <c r="C8" t="n">
-        <v>1660.609998322718</v>
+        <v>1279.042352470407</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1279.042352470407</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263129</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.572515263129</v>
+        <v>2034.60470947494</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>920.0280835997593</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>920.0280835997593</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>769.9114441874235</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1836.228869117585</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1836.228869117585</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1547.126002243228</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1547.126002243228</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1257.708832206268</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.71928130825</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1101.676548429999</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263524</v>
+        <v>803.2707707770314</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5203,46 +5203,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378159</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378159</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172272</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135311</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237294</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093763</v>
+        <v>984.9192356072712</v>
       </c>
     </row>
     <row r="14">
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.0424953278208</v>
+        <v>696.7084350851666</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>527.7722521572597</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>527.7722521572597</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>379.8591585748666</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>232.9692110769562</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138407</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>740.6909601580605</v>
+        <v>878.3568999154064</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536382</v>
+        <v>810.0653816078142</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257313</v>
+        <v>641.1291986799073</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133955</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1821.411327970256</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1566.726839764369</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W19" t="n">
-        <v>1277.309669727408</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>991.7138464380539</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111704</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2337.284991357604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.683526380545</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
         <v>402.7245934908938</v>
@@ -6139,58 +6139,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,22 +6239,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.0424953278209</v>
+        <v>741.8431516380889</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278209</v>
+        <v>572.906968710182</v>
       </c>
       <c r="D28" t="n">
-        <v>408.9258559154852</v>
+        <v>572.906968710182</v>
       </c>
       <c r="E28" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138413</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703112</v>
+        <v>923.4916164683286</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400706</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138405</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703104</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539549</v>
+        <v>778.7344347539563</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703058046</v>
+        <v>625.5267703058059</v>
       </c>
       <c r="D34" t="n">
-        <v>568.7871704218644</v>
+        <v>568.7871704218642</v>
       </c>
       <c r="E34" t="n">
-        <v>568.7871704218644</v>
+        <v>568.7871704218642</v>
       </c>
       <c r="F34" t="n">
-        <v>437.6257414037105</v>
+        <v>437.6257414037104</v>
       </c>
       <c r="G34" t="n">
         <v>286.158160598347</v>
@@ -6859,10 +6859,10 @@
         <v>189.4682024403051</v>
       </c>
       <c r="K34" t="n">
-        <v>466.572985927853</v>
+        <v>466.5729859278531</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658029</v>
+        <v>872.3871010658027</v>
       </c>
       <c r="M34" t="n">
         <v>1309.812324758847</v>
@@ -6883,25 +6883,25 @@
         <v>2518.970066008495</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143155</v>
+        <v>2351.843750143156</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645853</v>
+        <v>2147.970803645854</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469807</v>
+        <v>1874.624095469808</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743677</v>
+        <v>1635.668125743678</v>
       </c>
       <c r="W34" t="n">
         <v>1361.979474186473</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768212</v>
+        <v>1149.718441768213</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.654381104438</v>
+        <v>944.6543811044394</v>
       </c>
     </row>
     <row r="35">
@@ -6938,16 +6938,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
         <v>1483.79828551875</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>365.3157452817796</v>
       </c>
       <c r="G2" t="n">
-        <v>41.30204999791892</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>246.6343518642094</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>224.7394040878514</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>70.88187642684038</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>111.7546635373291</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.76311574357439</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.73700564187243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>131.6952193743942</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>75.84421273177691</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.44497470121439</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.73700564187197</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>59.21924749803944</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194298</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>76.87203583815266</v>
+        <v>76.87203583815104</v>
       </c>
       <c r="E34" t="n">
-        <v>130.8627293516102</v>
+        <v>130.8627293516101</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1035190.176213008</v>
+        <v>1035190.176213009</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170498.5494854602</v>
+        <v>170498.5494854603</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,25 +26320,25 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="F2" t="n">
         <v>201786.6499225016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="H2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="I2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="J2" t="n">
         <v>201786.6499225015</v>
       </c>
-      <c r="I2" t="n">
-        <v>201786.6499225015</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>201786.6499225016</v>
-      </c>
-      <c r="K2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
         <v>204014.0338749323</v>
@@ -26350,7 +26350,7 @@
         <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596723</v>
+        <v>12456.98663596707</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317645</v>
+        <v>92025.75929317648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12820.12292715303</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.8989181818</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,31 +26433,31 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
+        <v>12996.86414683045</v>
+      </c>
+      <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="I4" t="n">
-        <v>12996.86414683045</v>
-      </c>
       <c r="J4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>18120.57590149348</v>
+        <v>18120.5759014935</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992393</v>
+        <v>20987.72340992392</v>
       </c>
       <c r="N4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="O4" t="n">
         <v>20987.72340992392</v>
       </c>
-      <c r="O4" t="n">
-        <v>20987.72340992393</v>
-      </c>
       <c r="P4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279000.259730679</v>
+        <v>-1279347.878660485</v>
       </c>
       <c r="C6" t="n">
-        <v>5142.602986495534</v>
+        <v>5142.602986495825</v>
       </c>
       <c r="D6" t="n">
-        <v>5142.602986495753</v>
+        <v>5142.602986496087</v>
       </c>
       <c r="E6" t="n">
-        <v>-237745.2058555913</v>
+        <v>-237779.9437810272</v>
       </c>
       <c r="F6" t="n">
-        <v>87667.25595176416</v>
+        <v>87632.51802632835</v>
       </c>
       <c r="G6" t="n">
-        <v>87667.25595176399</v>
+        <v>87632.51802632827</v>
       </c>
       <c r="H6" t="n">
-        <v>87667.25595176379</v>
+        <v>87632.5180263283</v>
       </c>
       <c r="I6" t="n">
-        <v>87667.25595176413</v>
+        <v>87632.51802632833</v>
       </c>
       <c r="J6" t="n">
-        <v>-129863.9464455134</v>
+        <v>-129898.6843709491</v>
       </c>
       <c r="K6" t="n">
-        <v>87667.25595176399</v>
+        <v>87632.51802632838</v>
       </c>
       <c r="L6" t="n">
-        <v>71004.88350169061</v>
+        <v>70992.41941577937</v>
       </c>
       <c r="M6" t="n">
-        <v>-10917.15609094487</v>
+        <v>-10917.15609094486</v>
       </c>
       <c r="N6" t="n">
+        <v>81108.60320223164</v>
+      </c>
+      <c r="O6" t="n">
+        <v>81108.60320223164</v>
+      </c>
+      <c r="P6" t="n">
         <v>81108.60320223161</v>
-      </c>
-      <c r="O6" t="n">
-        <v>81108.60320223158</v>
-      </c>
-      <c r="P6" t="n">
-        <v>81108.60320223158</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495903</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080736</v>
+        <v>8.713414197080686</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>385.5711809049847</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>365.3142798616612</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>251.2100395155248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.457529283320781</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>312.4389741767271</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>40.90013756251159</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.622919774999872</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>188.54615582029</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.573027348075449e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>8.953513792444654e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495902</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,16 +32321,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32728,7 +32728,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,19 +35492,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,16 +35969,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791235</v>
+        <v>96.61771655791237</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045939</v>
+        <v>279.903821704594</v>
       </c>
       <c r="L34" t="n">
         <v>409.9132476140904</v>
@@ -37236,16 +37236,16 @@
         <v>441.8436602960041</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848664</v>
+        <v>437.1973662848665</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010044</v>
+        <v>388.8331330010045</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015839</v>
+        <v>311.203006601584</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948573</v>
+        <v>135.9734905948574</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
